--- a/projeto/OUTROS/Planejamento BD.xlsx
+++ b/projeto/OUTROS/Planejamento BD.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CONTEÚDO\SENAC\SENAC Seg-Qua-Sex\Aulas UC 3\projeto\OUTRos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php\projeto\OUTROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F45B9C-6ADC-4AB8-9722-EF4CE3C23293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{322D4E15-B02C-4742-B386-569CF45599E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>long</t>
   </si>
@@ -191,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,9 +263,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -277,6 +273,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,442 +590,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D47B30-1832-4366-89CC-0692151EF658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="8"/>
+      <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="E27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/projeto/OUTROS/Planejamento BD.xlsx
+++ b/projeto/OUTROS/Planejamento BD.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php\projeto\OUTROS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CONTEÚDO\SENAC\SENAC Seg-Qua-Sex\Aulas UC 3\projeto\OUTRos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F45B9C-6ADC-4AB8-9722-EF4CE3C23293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{322D4E15-B02C-4742-B386-569CF45599E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
   <si>
     <t>long</t>
   </si>
@@ -190,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,6 +264,9 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -273,9 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,444 +591,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D47B30-1832-4366-89CC-0692151EF658}">
   <dimension ref="A3:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="E21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="1"/>
+      <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
     </row>
